--- a/coordinates_sample/506益州郡/506益州郡.xlsx
+++ b/coordinates_sample/506益州郡/506益州郡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7500" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="506(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="94">
   <si>
     <t>county_han</t>
   </si>
@@ -671,9 +671,9 @@
       <selection activeCell="D8" sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -801,7 +801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -833,7 +833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -865,7 +865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -897,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -929,7 +929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -961,7 +961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -993,7 +993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1129,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1486,110 +1486,6 @@
       </c>
       <c r="I12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16:AE37"/>
     </sheetView>
   </sheetViews>

--- a/coordinates_sample/506益州郡/506益州郡.xlsx
+++ b/coordinates_sample/506益州郡/506益州郡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="506(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>故城在今云南大理县西北嘉洲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在今云南开远市东北一带。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,13 @@
   </si>
   <si>
     <t>ONLINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故城在今云南大理县西北喜洲。</t>
+    <rPh sb="11" eb="12">
+      <t>xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,7 +1135,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1186,10 +1189,10 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -1215,10 +1218,10 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1244,10 +1247,10 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1273,10 +1276,10 @@
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -1302,10 +1305,10 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1322,19 +1325,19 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>25.748211399999999</v>
+        <v>25.850336599999999</v>
       </c>
       <c r="D7">
-        <v>99.928469899999996</v>
+        <v>99.850547399999996</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -1357,13 +1360,13 @@
         <v>103.1086794</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -1386,13 +1389,13 @@
         <v>99.114529099999999</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -1415,13 +1418,13 @@
         <v>102.55859719999999</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>53</v>
@@ -1444,13 +1447,13 @@
         <v>102.6082473</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1473,13 +1476,13 @@
         <v>103.3696285</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -1499,7 +1502,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:AE37"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1541,7 +1544,7 @@
         <v>24.701596599999998</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -1564,7 +1567,7 @@
         <v>25.678351299999999</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -1587,7 +1590,7 @@
         <v>25.1106865</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1610,7 +1613,7 @@
         <v>25.3679624</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1633,7 +1636,7 @@
         <v>25.238509799999999</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1650,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>99.928469899999996</v>
+        <v>99.850547399999996</v>
       </c>
       <c r="D7">
-        <v>25.748211399999999</v>
+        <v>25.850336599999999</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -1679,7 +1682,7 @@
         <v>23.7367724</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1702,7 +1705,7 @@
         <v>25.110312700000001</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1725,7 +1728,7 @@
         <v>24.076457399999999</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -1748,7 +1751,7 @@
         <v>24.361303499999998</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1771,7 +1774,7 @@
         <v>22.387239399999999</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
